--- a/Introduction-to-Data/L7-Business-Metrics/Misc/band-churn-rate-quiz.xlsx
+++ b/Introduction-to-Data/L7-Business-Metrics/Misc/band-churn-rate-quiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marksoro/git-projects/Business-Analytics/Introduction-to-Data/L7-Business-Metrics/Misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348D54E7-989A-EA44-9AEA-E95D936B1421}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D6E063-8A00-AE4A-A5DC-21D84D2F3D0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="2280" windowWidth="18060" windowHeight="12100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14080" yWindow="1600" windowWidth="18060" windowHeight="12100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,6 +120,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88AAF48F-A8F3-1544-872B-9F3AF5DF9A1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50800" y="1841500"/>
+          <a:ext cx="6781800" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE69A389-EB0A-A34F-A094-C9525C40312B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="2133600"/>
+          <a:ext cx="4914900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,7 +481,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -501,5 +594,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>